--- a/natmiOut/OldD2/LR-pairs_lrc2p/Anpep-Sele.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Anpep-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3823800495852</v>
+        <v>13.058258</v>
       </c>
       <c r="H2">
-        <v>11.3823800495852</v>
+        <v>26.116516</v>
       </c>
       <c r="I2">
-        <v>0.06753248626447655</v>
+        <v>0.06737388604429713</v>
       </c>
       <c r="J2">
-        <v>0.06753248626447655</v>
+        <v>0.04635632728113229</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N2">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O2">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P2">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q2">
-        <v>145.6722473162927</v>
+        <v>196.65919363612</v>
       </c>
       <c r="R2">
-        <v>145.6722473162927</v>
+        <v>786.6367745444801</v>
       </c>
       <c r="S2">
-        <v>0.04934915980793442</v>
+        <v>0.05024153589349958</v>
       </c>
       <c r="T2">
-        <v>0.04934915980793442</v>
+        <v>0.03066909674084745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3823800495852</v>
+        <v>13.058258</v>
       </c>
       <c r="H3">
-        <v>11.3823800495852</v>
+        <v>26.116516</v>
       </c>
       <c r="I3">
-        <v>0.06753248626447655</v>
+        <v>0.06737388604429713</v>
       </c>
       <c r="J3">
-        <v>0.06753248626447655</v>
+        <v>0.04635632728113229</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N3">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O3">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P3">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q3">
-        <v>0.7761355923007901</v>
+        <v>1.441805793306667</v>
       </c>
       <c r="R3">
-        <v>0.7761355923007901</v>
+        <v>8.65083475984</v>
       </c>
       <c r="S3">
-        <v>0.0002629302429440428</v>
+        <v>0.0003683455432544186</v>
       </c>
       <c r="T3">
-        <v>0.0002629302429440428</v>
+        <v>0.0003372754703621052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3823800495852</v>
+        <v>13.058258</v>
       </c>
       <c r="H4">
-        <v>11.3823800495852</v>
+        <v>26.116516</v>
       </c>
       <c r="I4">
-        <v>0.06753248626447655</v>
+        <v>0.06737388604429713</v>
       </c>
       <c r="J4">
-        <v>0.06753248626447655</v>
+        <v>0.04635632728113229</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N4">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O4">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P4">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q4">
-        <v>52.89865925566367</v>
+        <v>0.7126544303500001</v>
       </c>
       <c r="R4">
-        <v>52.89865925566367</v>
+        <v>4.2759265821</v>
       </c>
       <c r="S4">
-        <v>0.01792039621359809</v>
+        <v>0.0001820654935072144</v>
       </c>
       <c r="T4">
-        <v>0.01792039621359809</v>
+        <v>0.00016670820669314</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.3960504439315</v>
+        <v>13.058258</v>
       </c>
       <c r="H5">
-        <v>38.3960504439315</v>
+        <v>26.116516</v>
       </c>
       <c r="I5">
-        <v>0.2278065516982493</v>
+        <v>0.06737388604429713</v>
       </c>
       <c r="J5">
-        <v>0.2278065516982493</v>
+        <v>0.04635632728113229</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N5">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O5">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P5">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q5">
-        <v>491.3945002601692</v>
+        <v>64.90627161562267</v>
       </c>
       <c r="R5">
-        <v>491.3945002601692</v>
+        <v>389.437629693736</v>
       </c>
       <c r="S5">
-        <v>0.1664689477153891</v>
+        <v>0.01658193911403591</v>
       </c>
       <c r="T5">
-        <v>0.1664689477153891</v>
+        <v>0.01518324686322959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.3960504439315</v>
+        <v>40.57394866666667</v>
       </c>
       <c r="H6">
-        <v>38.3960504439315</v>
+        <v>121.721846</v>
       </c>
       <c r="I6">
-        <v>0.2278065516982493</v>
+        <v>0.2093406788129903</v>
       </c>
       <c r="J6">
-        <v>0.2278065516982493</v>
+        <v>0.21605399933282</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N6">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O6">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P6">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q6">
-        <v>2.61812918067147</v>
+        <v>611.0493472728134</v>
       </c>
       <c r="R6">
-        <v>2.61812918067147</v>
+        <v>3666.29608363688</v>
       </c>
       <c r="S6">
-        <v>0.0008869395352584923</v>
+        <v>0.1561079202354053</v>
       </c>
       <c r="T6">
-        <v>0.0008869395352584923</v>
+        <v>0.1429401636285841</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.3960504439315</v>
+        <v>40.57394866666667</v>
       </c>
       <c r="H7">
-        <v>38.3960504439315</v>
+        <v>121.721846</v>
       </c>
       <c r="I7">
-        <v>0.2278065516982493</v>
+        <v>0.2093406788129903</v>
       </c>
       <c r="J7">
-        <v>0.2278065516982493</v>
+        <v>0.21605399933282</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.64741635977894</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N7">
-        <v>4.64741635977894</v>
+        <v>0.33124</v>
       </c>
       <c r="O7">
-        <v>0.2653596395580149</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P7">
-        <v>0.2653596395580149</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q7">
-        <v>178.4424329840247</v>
+        <v>4.479904918782221</v>
       </c>
       <c r="R7">
-        <v>178.4424329840247</v>
+        <v>40.31914426904</v>
       </c>
       <c r="S7">
-        <v>0.06045066444760173</v>
+        <v>0.001144504356063437</v>
       </c>
       <c r="T7">
-        <v>0.06045066444760173</v>
+        <v>0.001571947531707281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.2537985329935</v>
+        <v>40.57394866666667</v>
       </c>
       <c r="H8">
-        <v>54.2537985329935</v>
+        <v>121.721846</v>
       </c>
       <c r="I8">
-        <v>0.3218917210868023</v>
+        <v>0.2093406788129903</v>
       </c>
       <c r="J8">
-        <v>0.3218917210868023</v>
+        <v>0.21605399933282</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>12.7980480955388</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N8">
-        <v>12.7980480955388</v>
+        <v>0.163725</v>
       </c>
       <c r="O8">
-        <v>0.7307469713860226</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P8">
-        <v>0.7307469713860226</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q8">
-        <v>694.3427229909232</v>
+        <v>2.214323248483334</v>
       </c>
       <c r="R8">
-        <v>694.3427229909232</v>
+        <v>19.92890923635</v>
       </c>
       <c r="S8">
-        <v>0.2352214002984151</v>
+        <v>0.0005657045516739714</v>
       </c>
       <c r="T8">
-        <v>0.2352214002984151</v>
+        <v>0.0007769807681100553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.2537985329935</v>
+        <v>40.57394866666667</v>
       </c>
       <c r="H9">
-        <v>54.2537985329935</v>
+        <v>121.721846</v>
       </c>
       <c r="I9">
-        <v>0.3218917210868023</v>
+        <v>0.2093406788129903</v>
       </c>
       <c r="J9">
-        <v>0.3218917210868023</v>
+        <v>0.21605399933282</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0681874606997571</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N9">
-        <v>0.0681874606997571</v>
+        <v>14.911546</v>
       </c>
       <c r="O9">
-        <v>0.003893389055962381</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P9">
-        <v>0.003893389055962381</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q9">
-        <v>3.699428755281034</v>
+        <v>201.6734339815463</v>
       </c>
       <c r="R9">
-        <v>3.699428755281034</v>
+        <v>1815.060905833916</v>
       </c>
       <c r="S9">
-        <v>0.001253249704084251</v>
+        <v>0.05152254966984762</v>
       </c>
       <c r="T9">
-        <v>0.001253249704084251</v>
+        <v>0.07076490740441853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.2537985329935</v>
+        <v>66.06361933333334</v>
       </c>
       <c r="H10">
-        <v>54.2537985329935</v>
+        <v>198.190858</v>
       </c>
       <c r="I10">
-        <v>0.3218917210868023</v>
+        <v>0.3408542518181081</v>
       </c>
       <c r="J10">
-        <v>0.3218917210868023</v>
+        <v>0.3517850649595227</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.64741635977894</v>
+        <v>15.06014</v>
       </c>
       <c r="N10">
-        <v>4.64741635977894</v>
+        <v>30.12028</v>
       </c>
       <c r="O10">
-        <v>0.2653596395580149</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P10">
-        <v>0.2653596395580149</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q10">
-        <v>252.1399908823846</v>
+        <v>994.9273560667067</v>
       </c>
       <c r="R10">
-        <v>252.1399908823846</v>
+        <v>5969.56413640024</v>
       </c>
       <c r="S10">
-        <v>0.08541707108430291</v>
+        <v>0.2541792099673754</v>
       </c>
       <c r="T10">
-        <v>0.08541707108430291</v>
+        <v>0.2327391064395251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.2480860145778</v>
+        <v>66.06361933333334</v>
       </c>
       <c r="H11">
-        <v>54.2480860145778</v>
+        <v>198.190858</v>
       </c>
       <c r="I11">
-        <v>0.3218578283007801</v>
+        <v>0.3408542518181081</v>
       </c>
       <c r="J11">
-        <v>0.3218578283007801</v>
+        <v>0.3517850649595227</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.7980480955388</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N11">
-        <v>12.7980480955388</v>
+        <v>0.33124</v>
       </c>
       <c r="O11">
-        <v>0.7307469713860226</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P11">
-        <v>0.7307469713860226</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q11">
-        <v>694.2696139054924</v>
+        <v>7.294304422657778</v>
       </c>
       <c r="R11">
-        <v>694.2696139054924</v>
+        <v>65.64873980391999</v>
       </c>
       <c r="S11">
-        <v>0.2351966332476775</v>
+        <v>0.001863513475740009</v>
       </c>
       <c r="T11">
-        <v>0.2351966332476775</v>
+        <v>0.002559488212494316</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.2480860145778</v>
+        <v>66.06361933333334</v>
       </c>
       <c r="H12">
-        <v>54.2480860145778</v>
+        <v>198.190858</v>
       </c>
       <c r="I12">
-        <v>0.3218578283007801</v>
+        <v>0.3408542518181081</v>
       </c>
       <c r="J12">
-        <v>0.3218578283007801</v>
+        <v>0.3517850649595227</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0681874606997571</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N12">
-        <v>0.0681874606997571</v>
+        <v>0.163725</v>
       </c>
       <c r="O12">
-        <v>0.003893389055962381</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P12">
-        <v>0.003893389055962381</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q12">
-        <v>3.699039233156067</v>
+        <v>3.605422025116667</v>
       </c>
       <c r="R12">
-        <v>3.699039233156067</v>
+        <v>32.44879822605</v>
       </c>
       <c r="S12">
-        <v>0.001253117746282076</v>
+        <v>0.0009210957125212326</v>
       </c>
       <c r="T12">
-        <v>0.001253117746282076</v>
+        <v>0.001265101459940321</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.2480860145778</v>
+        <v>66.06361933333334</v>
       </c>
       <c r="H13">
-        <v>54.2480860145778</v>
+        <v>198.190858</v>
       </c>
       <c r="I13">
-        <v>0.3218578283007801</v>
+        <v>0.3408542518181081</v>
       </c>
       <c r="J13">
-        <v>0.3218578283007801</v>
+        <v>0.3517850649595227</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.64741635977894</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N13">
-        <v>4.64741635977894</v>
+        <v>14.911546</v>
       </c>
       <c r="O13">
-        <v>0.2653596395580149</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P13">
-        <v>0.2653596395580149</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q13">
-        <v>252.113442430844</v>
+        <v>328.3702328718298</v>
       </c>
       <c r="R13">
-        <v>252.113442430844</v>
+        <v>2955.332095846468</v>
       </c>
       <c r="S13">
-        <v>0.08540807730682044</v>
+        <v>0.08389043266247144</v>
       </c>
       <c r="T13">
-        <v>0.08540807730682044</v>
+        <v>0.115221368847563</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.41249230017767</v>
+        <v>63.63395466666667</v>
       </c>
       <c r="H14">
-        <v>5.41249230017767</v>
+        <v>190.901864</v>
       </c>
       <c r="I14">
-        <v>0.03211270932142649</v>
+        <v>0.3283184334587332</v>
       </c>
       <c r="J14">
-        <v>0.03211270932142649</v>
+        <v>0.3388472369806986</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7980480955388</v>
+        <v>15.06014</v>
       </c>
       <c r="N14">
-        <v>12.7980480955388</v>
+        <v>30.12028</v>
       </c>
       <c r="O14">
-        <v>0.7307469713860226</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P14">
-        <v>0.7307469713860226</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q14">
-        <v>69.26933677440724</v>
+        <v>958.3362660336535</v>
       </c>
       <c r="R14">
-        <v>69.26933677440724</v>
+        <v>5750.017596201921</v>
       </c>
       <c r="S14">
-        <v>0.02346626507963211</v>
+        <v>0.2448310959571069</v>
       </c>
       <c r="T14">
-        <v>0.02346626507963211</v>
+        <v>0.2241795090518239</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.41249230017767</v>
+        <v>63.63395466666667</v>
       </c>
       <c r="H15">
-        <v>5.41249230017767</v>
+        <v>190.901864</v>
       </c>
       <c r="I15">
-        <v>0.03211270932142649</v>
+        <v>0.3283184334587332</v>
       </c>
       <c r="J15">
-        <v>0.03211270932142649</v>
+        <v>0.3388472369806986</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0681874606997571</v>
+        <v>0.1104133333333333</v>
       </c>
       <c r="N15">
-        <v>0.0681874606997571</v>
+        <v>0.33124</v>
       </c>
       <c r="O15">
-        <v>0.003893389055962381</v>
+        <v>0.005467185654279137</v>
       </c>
       <c r="P15">
-        <v>0.003893389055962381</v>
+        <v>0.007275715962497773</v>
       </c>
       <c r="Q15">
-        <v>0.3690641060061028</v>
+        <v>7.026037047928889</v>
       </c>
       <c r="R15">
-        <v>0.3690641060061028</v>
+        <v>63.23433343136</v>
       </c>
       <c r="S15">
-        <v>0.000125027271029343</v>
+        <v>0.001794977829440986</v>
       </c>
       <c r="T15">
-        <v>0.000125027271029343</v>
+        <v>0.002465356250948734</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.41249230017767</v>
+        <v>63.63395466666667</v>
       </c>
       <c r="H16">
-        <v>5.41249230017767</v>
+        <v>190.901864</v>
       </c>
       <c r="I16">
-        <v>0.03211270932142649</v>
+        <v>0.3283184334587332</v>
       </c>
       <c r="J16">
-        <v>0.03211270932142649</v>
+        <v>0.3388472369806986</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>4.64741635977894</v>
+        <v>0.05457500000000001</v>
       </c>
       <c r="N16">
-        <v>4.64741635977894</v>
+        <v>0.163725</v>
       </c>
       <c r="O16">
-        <v>0.2653596395580149</v>
+        <v>0.002702315454796679</v>
       </c>
       <c r="P16">
-        <v>0.2653596395580149</v>
+        <v>0.003596234138268168</v>
       </c>
       <c r="Q16">
-        <v>25.15410526302325</v>
+        <v>3.472823075933334</v>
       </c>
       <c r="R16">
-        <v>25.15410526302325</v>
+        <v>31.2554076834</v>
       </c>
       <c r="S16">
-        <v>0.00852141697076504</v>
+        <v>0.0008872199768301697</v>
       </c>
       <c r="T16">
-        <v>0.00852141697076504</v>
+        <v>0.001218574001287832</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.85392741108064</v>
+        <v>63.63395466666667</v>
       </c>
       <c r="H17">
-        <v>4.85392741108064</v>
+        <v>190.901864</v>
       </c>
       <c r="I17">
-        <v>0.02879870332826527</v>
+        <v>0.3283184334587332</v>
       </c>
       <c r="J17">
-        <v>0.02879870332826527</v>
+        <v>0.3388472369806986</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.7980480955388</v>
+        <v>4.970515333333334</v>
       </c>
       <c r="N17">
-        <v>12.7980480955388</v>
+        <v>14.911546</v>
       </c>
       <c r="O17">
-        <v>0.7307469713860226</v>
+        <v>0.2461181933773804</v>
       </c>
       <c r="P17">
-        <v>0.7307469713860226</v>
+        <v>0.3275334297117493</v>
       </c>
       <c r="Q17">
-        <v>62.12079645926416</v>
+        <v>316.293547391305</v>
       </c>
       <c r="R17">
-        <v>62.12079645926416</v>
+        <v>2846.641926521745</v>
       </c>
       <c r="S17">
-        <v>0.02104456523697442</v>
+        <v>0.08080513969535508</v>
       </c>
       <c r="T17">
-        <v>0.02104456523697442</v>
+        <v>0.1109837976766381</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.85392741108064</v>
+        <v>5.479108333333333</v>
       </c>
       <c r="H18">
-        <v>4.85392741108064</v>
+        <v>16.437325</v>
       </c>
       <c r="I18">
-        <v>0.02879870332826527</v>
+        <v>0.0282693771615141</v>
       </c>
       <c r="J18">
-        <v>0.02879870332826527</v>
+        <v>0.02917594434595862</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0681874606997571</v>
+        <v>15.06014</v>
       </c>
       <c r="N18">
-        <v>0.0681874606997571</v>
+        <v>30.12028</v>
       </c>
       <c r="O18">
-        <v>0.003893389055962381</v>
+        <v>0.7457123055135437</v>
       </c>
       <c r="P18">
-        <v>0.003893389055962381</v>
+        <v>0.6615946201874847</v>
       </c>
       <c r="Q18">
-        <v>0.3309769845825349</v>
+        <v>82.51613857516668</v>
       </c>
       <c r="R18">
-        <v>0.3309769845825349</v>
+        <v>495.0968314510001</v>
       </c>
       <c r="S18">
-        <v>0.0001121245563641754</v>
+        <v>0.0210808224185446</v>
       </c>
       <c r="T18">
-        <v>0.0001121245563641754</v>
+        <v>0.01930264781817568</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.479108333333333</v>
+      </c>
+      <c r="H19">
+        <v>16.437325</v>
+      </c>
+      <c r="I19">
+        <v>0.0282693771615141</v>
+      </c>
+      <c r="J19">
+        <v>0.02917594434595862</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.33124</v>
+      </c>
+      <c r="O19">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P19">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q19">
+        <v>0.6049666147777777</v>
+      </c>
+      <c r="R19">
+        <v>5.444699533</v>
+      </c>
+      <c r="S19">
+        <v>0.0001545539332728362</v>
+      </c>
+      <c r="T19">
+        <v>0.0002122758839988377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.479108333333333</v>
+      </c>
+      <c r="H20">
+        <v>16.437325</v>
+      </c>
+      <c r="I20">
+        <v>0.0282693771615141</v>
+      </c>
+      <c r="J20">
+        <v>0.02917594434595862</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.163725</v>
+      </c>
+      <c r="O20">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P20">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q20">
+        <v>0.2990223372916667</v>
+      </c>
+      <c r="R20">
+        <v>2.691201035625</v>
+      </c>
+      <c r="S20">
+        <v>7.639277480103583E-05</v>
+      </c>
+      <c r="T20">
+        <v>0.0001049235270731485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.479108333333333</v>
+      </c>
+      <c r="H21">
+        <v>16.437325</v>
+      </c>
+      <c r="I21">
+        <v>0.0282693771615141</v>
+      </c>
+      <c r="J21">
+        <v>0.02917594434595862</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N21">
+        <v>14.911546</v>
+      </c>
+      <c r="O21">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P21">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q21">
+        <v>27.23399198382778</v>
+      </c>
+      <c r="R21">
+        <v>245.10592785445</v>
+      </c>
+      <c r="S21">
+        <v>0.006957608034895627</v>
+      </c>
+      <c r="T21">
+        <v>0.009556097116710948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.0089055</v>
+      </c>
+      <c r="H22">
+        <v>10.017811</v>
+      </c>
+      <c r="I22">
+        <v>0.02584337270435713</v>
+      </c>
+      <c r="J22">
+        <v>0.01778142709986765</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15.06014</v>
+      </c>
+      <c r="N22">
+        <v>30.12028</v>
+      </c>
+      <c r="O22">
+        <v>0.7457123055135437</v>
+      </c>
+      <c r="P22">
+        <v>0.6615946201874847</v>
+      </c>
+      <c r="Q22">
+        <v>75.43481807677</v>
+      </c>
+      <c r="R22">
+        <v>301.73927230708</v>
+      </c>
+      <c r="S22">
+        <v>0.01927172104161194</v>
+      </c>
+      <c r="T22">
+        <v>0.01176409650852839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.0089055</v>
+      </c>
+      <c r="H23">
+        <v>10.017811</v>
+      </c>
+      <c r="I23">
+        <v>0.02584337270435713</v>
+      </c>
+      <c r="J23">
+        <v>0.01778142709986765</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1104133333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.33124</v>
+      </c>
+      <c r="O23">
+        <v>0.005467185654279137</v>
+      </c>
+      <c r="P23">
+        <v>0.007275715962497773</v>
+      </c>
+      <c r="Q23">
+        <v>0.5530499526066666</v>
+      </c>
+      <c r="R23">
+        <v>3.31829971564</v>
+      </c>
+      <c r="S23">
+        <v>0.0001412905165074503</v>
+      </c>
+      <c r="T23">
+        <v>0.0001293726129864975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.0089055</v>
+      </c>
+      <c r="H24">
+        <v>10.017811</v>
+      </c>
+      <c r="I24">
+        <v>0.02584337270435713</v>
+      </c>
+      <c r="J24">
+        <v>0.01778142709986765</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05457500000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.163725</v>
+      </c>
+      <c r="O24">
+        <v>0.002702315454796679</v>
+      </c>
+      <c r="P24">
+        <v>0.003596234138268168</v>
+      </c>
+      <c r="Q24">
+        <v>0.2733610176625</v>
+      </c>
+      <c r="R24">
+        <v>1.640166105975</v>
+      </c>
+      <c r="S24">
+        <v>6.983694546305492E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.39461751636708E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>4.85392741108064</v>
-      </c>
-      <c r="H19">
-        <v>4.85392741108064</v>
-      </c>
-      <c r="I19">
-        <v>0.02879870332826527</v>
-      </c>
-      <c r="J19">
-        <v>0.02879870332826527</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="N19">
-        <v>4.64741635977894</v>
-      </c>
-      <c r="O19">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="P19">
-        <v>0.2653596395580149</v>
-      </c>
-      <c r="Q19">
-        <v>22.5582216594356</v>
-      </c>
-      <c r="R19">
-        <v>22.5582216594356</v>
-      </c>
-      <c r="S19">
-        <v>0.007642013534926677</v>
-      </c>
-      <c r="T19">
-        <v>0.007642013534926677</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.0089055</v>
+      </c>
+      <c r="H25">
+        <v>10.017811</v>
+      </c>
+      <c r="I25">
+        <v>0.02584337270435713</v>
+      </c>
+      <c r="J25">
+        <v>0.01778142709986765</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.970515333333334</v>
+      </c>
+      <c r="N25">
+        <v>14.911546</v>
+      </c>
+      <c r="O25">
+        <v>0.2461181933773804</v>
+      </c>
+      <c r="P25">
+        <v>0.3275334297117493</v>
+      </c>
+      <c r="Q25">
+        <v>24.89684159096767</v>
+      </c>
+      <c r="R25">
+        <v>149.381049545806</v>
+      </c>
+      <c r="S25">
+        <v>0.006360524200774682</v>
+      </c>
+      <c r="T25">
+        <v>0.005824011803189096</v>
       </c>
     </row>
   </sheetData>
